--- a/HyPAT/data_files/material_data.xlsx
+++ b/HyPAT/data_files/material_data.xlsx
@@ -1,43 +1,175 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evangs/PycharmProjects/HyPAT/HyPAT/data_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE37530-F565-704E-AA80-459283D3AB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+  <si>
+    <t>Diffusivity</t>
+  </si>
+  <si>
+    <t>Solubility</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>D0 [m^2 s^-1]</t>
+  </si>
+  <si>
+    <t>E_D [kJ mol^-1]</t>
+  </si>
+  <si>
+    <t>min. temp. [K]</t>
+  </si>
+  <si>
+    <t>max. temp. [K]</t>
+  </si>
+  <si>
+    <t>K0 [mol m^-3 Pa^-0.5]</t>
+  </si>
+  <si>
+    <t>E_K [kJ mol^-1]</t>
+  </si>
+  <si>
+    <t>Lithium (lq)</t>
+  </si>
+  <si>
+    <t>Beryllium</t>
+  </si>
+  <si>
+    <t>Aluminum</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>Vanadium</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Zirconium</t>
+  </si>
+  <si>
+    <t>Molybdenum</t>
+  </si>
+  <si>
+    <t>Niobium</t>
+  </si>
+  <si>
+    <t>Palladium</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Tantalum</t>
+  </si>
+  <si>
+    <t>Tungsten</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>RAFM steel</t>
+  </si>
+  <si>
+    <t>SS 300 series</t>
+  </si>
+  <si>
+    <t>SS 316L</t>
+  </si>
+  <si>
+    <t>Inconel 600</t>
+  </si>
+  <si>
+    <t>Inconel 625</t>
+  </si>
+  <si>
+    <t>Incoloy 800</t>
+  </si>
+  <si>
+    <t>Cu-Cr-Zr</t>
+  </si>
+  <si>
+    <t>V-Cr-Ti</t>
+  </si>
+  <si>
+    <t>Pd-25Ag</t>
+  </si>
+  <si>
+    <t>Pb-Li</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -46,123 +178,76 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,919 +535,850 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Diffusivity</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Solubility</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>D0 [m^2 s^-1]</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>E_D [kJ mol^-1]</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>min. temp. [K]</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>max. temp. [K]</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>K0 [mol m^-3 Pa^-0.5]</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>E_K [kJ mol^-1]</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>min. temp. [K]</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>max. temp. [K]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Lithium (lq)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C3">
         <v>105</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>898</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>1178</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" s="6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G3">
         <v>-51.4</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>983</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1176</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Beryllium</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.13e-08</v>
-      </c>
-      <c r="C4" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1.13E-8</v>
+      </c>
+      <c r="C4">
         <v>35.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>620</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>775</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G4">
         <v>16.8</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>673</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>1473</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Aluminum</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.75e-08</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.7500000000000001E-8</v>
+      </c>
+      <c r="C5">
         <v>16.2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>298</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>873</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.0232</v>
-      </c>
-      <c r="G5" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="F5" s="6">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="G5">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="H5">
         <v>723</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>873</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Titanium</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.19e-06</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1.19E-6</v>
+      </c>
+      <c r="C6">
         <v>49.1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>873</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>1123</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="6">
         <v>0.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-42.7</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>873</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>1123</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Vanadium</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2.9e-08</v>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.9000000000000002E-8</v>
+      </c>
+      <c r="C7">
         <v>4.2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>173</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>573</v>
       </c>
-      <c r="F7" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" s="6">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G7">
         <v>-29</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>519</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>827</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Iron</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4e-08</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="C8">
         <v>4.5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>573</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>1073</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="6">
         <v>0.35</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>24.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>473</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1183</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Nickel</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6.870000000000001e-07</v>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6.8700000000000005E-7</v>
+      </c>
+      <c r="C9">
         <v>40.5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>300</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>1473</v>
       </c>
-      <c r="F9" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G9">
         <v>15.8</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>500</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Copper</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.26e-07</v>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.2600000000000001E-7</v>
+      </c>
+      <c r="C10">
         <v>29.3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>673</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1073</v>
       </c>
-      <c r="F10" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" s="6">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G10">
         <v>31.2</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>673</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>1073</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Zirconium</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8e-07</v>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="C11">
         <v>45.3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>548</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>973</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="6">
         <v>0.43</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-49.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>602</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>1069</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Molybdenum</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4e-08</v>
-      </c>
-      <c r="C12" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="C12">
         <v>22.3</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>500</v>
       </c>
-      <c r="E12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>38</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="E12">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="G12">
+        <v>37.5</v>
+      </c>
+      <c r="H12">
         <v>500</v>
       </c>
-      <c r="I12" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Niobium</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5e-08</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="I12">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="C13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D13">
         <v>273</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>773</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="6">
         <v>0.126</v>
       </c>
-      <c r="G13" t="n">
-        <v>-35.3</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="G13">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="H13">
         <v>625</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>944</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Palladium</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2.9e-07</v>
-      </c>
-      <c r="C14" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="C14">
         <v>22.2</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>223</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>873</v>
       </c>
-      <c r="F14" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14" s="6">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="G14">
         <v>-8.4</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>473</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>673</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Silver</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>8.55e-07</v>
-      </c>
-      <c r="C15" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6">
+        <v>8.5499999999999997E-7</v>
+      </c>
+      <c r="C15">
         <v>30.1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>947</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>1123</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="6">
         <v>0.26</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>56.7</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>976</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>1214</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Tantalum</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.4e-08</v>
-      </c>
-      <c r="C16" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4.3999999999999997E-8</v>
+      </c>
+      <c r="C16">
         <v>13.5</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>253</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>573</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.132</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-33.7</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="F16" s="6">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="G16">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="H16">
         <v>623</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>904</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Tungsten</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.58e-07</v>
-      </c>
-      <c r="C17" t="n">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1.5800000000000001E-7</v>
+      </c>
+      <c r="C17">
         <v>24.1</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>300</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>2500</v>
       </c>
-      <c r="F17" t="n">
-        <v>3.892405063291139</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17" s="6">
+        <v>3.8924050632911391</v>
+      </c>
+      <c r="G17">
         <v>113.9</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1100</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>2500</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Platinum</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>6e-07</v>
-      </c>
-      <c r="C18" t="n">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="C18">
         <v>24.7</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>300</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>973</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="6">
         <v>0.21</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>46</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>300</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>973</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>5.6e-08</v>
-      </c>
-      <c r="C19" t="n">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6">
+        <v>5.5999999999999999E-8</v>
+      </c>
+      <c r="C19">
         <v>23.6</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>773</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>1273</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="6">
         <v>78</v>
       </c>
-      <c r="G19" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G19">
+        <v>99.4</v>
+      </c>
+      <c r="H19">
         <v>773</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>873</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>RAFM steel</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1e-07</v>
-      </c>
-      <c r="C20" t="n">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="C20">
         <v>13.2</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>300</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>973</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="6">
         <v>0.44</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>28.6</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>300</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>973</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>SS 300 series</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2e-07</v>
-      </c>
-      <c r="C21" t="n">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="C21">
         <v>49.3</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>373</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>623</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="6">
         <v>0.27</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>6.9</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>373</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>623</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>SS 316L</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>8.7e-07</v>
-      </c>
-      <c r="C22" t="n">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6">
+        <v>8.7000000000000003E-7</v>
+      </c>
+      <c r="C22">
         <v>51.9</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>500</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1200</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="6">
         <v>0.36</v>
       </c>
-      <c r="G22" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="G22">
+        <v>13.1</v>
+      </c>
+      <c r="H22">
         <v>500</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>1200</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Inconel 600</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4.9e-06</v>
-      </c>
-      <c r="C23" t="n">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="C23">
         <v>42.5</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>873</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1173</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="6">
         <v>0.1618</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>21.2</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>873</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>1173</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Inconel 625</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1.75e-06</v>
-      </c>
-      <c r="C24" t="n">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1.75E-6</v>
+      </c>
+      <c r="C24">
         <v>52.6</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>673</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>873</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.209</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="F24" s="6">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="G24">
         <v>10.5</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>673</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>873</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Incoloy 800</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1.68e-05</v>
-      </c>
-      <c r="C25" t="n">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1.6799999999999998E-5</v>
+      </c>
+      <c r="C25">
         <v>56.4</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1023</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1223</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.002165</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25" s="6">
+        <v>2.1649999999999998E-3</v>
+      </c>
+      <c r="G25">
         <v>0.2</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>1023</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>1223</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Cu-Cr-Zr</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>5.7e-07</v>
-      </c>
-      <c r="C26" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6">
+        <v>5.7000000000000005E-7</v>
+      </c>
+      <c r="C26">
         <v>41.2</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>553</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>773</v>
       </c>
-      <c r="F26" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26" s="6">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="G26">
         <v>38.6</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>553</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>773</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>V-Cr-Ti</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>7.5e-07</v>
-      </c>
-      <c r="C27" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6">
+        <v>7.5000000000000002E-7</v>
+      </c>
+      <c r="C27">
         <v>12.5</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>373</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>573</v>
       </c>
-      <c r="F27" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="G27" t="n">
+      <c r="F27" s="6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="G27">
         <v>-21.7</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>673</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>1073</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>Pd-25Ag</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3.07e-07</v>
-      </c>
-      <c r="C28" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3.0699999999999998E-7</v>
+      </c>
+      <c r="C28">
         <v>25.9</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>323</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>773</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.1818</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-19.6</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="F28" s="6">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="G28">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H28">
         <v>323</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>773</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Pb-Li</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4.03e-08</v>
-      </c>
-      <c r="C29" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="6">
+        <v>4.0299999999999997E-8</v>
+      </c>
+      <c r="C29">
         <v>19.5</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>523</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>703</v>
       </c>
-      <c r="F29" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="F29" s="6">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G29">
         <v>53.8</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>773</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>973</v>
       </c>
     </row>
@@ -1376,6 +1392,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa8bfe3d-3fd0-41f5-9c33-87c45324e297">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ca77b916-f394-4de9-b274-c15ee8638632" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34b5283cf4dfffaff109746742aa09de">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" xmlns:ns3="ca77b916-f394-4de9-b274-c15ee8638632" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="898ab104950e04c568cc6a94d04fd6c3" ns2:_="" ns3:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
@@ -1558,34 +1594,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa8bfe3d-3fd0-41f5-9c33-87c45324e297">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="ca77b916-f394-4de9-b274-c15ee8638632" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA032F3-91E4-4442-ACA8-A72161E06477}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE8E3A7-EC65-44B6-8095-A3C4B179E789}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <ds:schemaRef ds:uri="ca77b916-f394-4de9-b274-c15ee8638632"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4835CF70-2438-48E1-808F-4636D5DD930B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4835CF70-2438-48E1-808F-4636D5DD930B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE8E3A7-EC65-44B6-8095-A3C4B179E789}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA032F3-91E4-4442-ACA8-A72161E06477}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <ds:schemaRef ds:uri="ca77b916-f394-4de9-b274-c15ee8638632"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>